--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.1/avg_0.003_scores.xlsx
@@ -40,54 +40,57 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>creepy</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>disturbing</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -97,25 +100,22 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>social</t>
@@ -479,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,7 +487,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
@@ -548,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -566,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -598,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -616,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -648,13 +648,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9545454545454546</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -666,19 +666,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -698,13 +698,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9423076923076923</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -748,13 +748,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -766,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7">
         <v>0.7368421052631579</v>
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8421052631578947</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -816,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.5066666666666667</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -848,13 +848,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8181818181818182</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -866,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.65</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -916,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.4666666666666667</v>
+        <v>0.52</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -948,13 +948,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6470588235294118</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -966,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.4482758620689655</v>
+        <v>0.02641165755919854</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1018,43 +1018,19 @@
       <c r="H12">
         <v>7</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12">
-        <v>0.03278688524590164</v>
-      </c>
-      <c r="L12">
-        <v>36</v>
-      </c>
-      <c r="M12">
-        <v>36</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1062</v>
-      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4492753623188406</v>
+        <v>0.5144927536231884</v>
       </c>
       <c r="C13">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1066,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1074,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.391304347826087</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1092,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1100,13 +1076,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3571428571428572</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1118,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1126,25 +1102,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3404255319148936</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>16</v>
-      </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1152,13 +1128,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.282051282051282</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1170,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1178,13 +1154,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2571428571428571</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1196,7 +1172,33 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
